--- a/results/history.xlsx
+++ b/results/history.xlsx
@@ -77,7 +77,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -94,6 +94,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -459,12 +460,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
@@ -481,6 +486,8 @@
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -509,6 +516,16 @@
           <t>2025-12-14 17:12:45</t>
         </is>
       </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>2025-12-14 19:36:19</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>2025-12-14 19:41:18</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
@@ -536,6 +553,7 @@
           <t>OK (1944ms)</t>
         </is>
       </c>
+      <c r="F2" s="6" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
@@ -563,6 +581,7 @@
           <t>429</t>
         </is>
       </c>
+      <c r="F3" s="6" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
@@ -590,6 +609,7 @@
           <t>OK (8973ms)</t>
         </is>
       </c>
+      <c r="F4" s="6" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -617,6 +637,7 @@
           <t>OK (831ms)</t>
         </is>
       </c>
+      <c r="F5" s="6" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
@@ -644,6 +665,16 @@
           <t>429</t>
         </is>
       </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>OK (1584ms)</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>OK (1257ms)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
@@ -671,6 +702,16 @@
           <t>OK (2337ms)</t>
         </is>
       </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
@@ -698,6 +739,16 @@
           <t>OK (3852ms)</t>
         </is>
       </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>OK (2903ms)</t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>OK (5822ms)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
@@ -725,6 +776,16 @@
           <t>OK (1388ms)</t>
         </is>
       </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>OK (1472ms)</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>OK (1501ms)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
@@ -752,6 +813,16 @@
           <t>OK (1480ms)</t>
         </is>
       </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>OK (1663ms)</t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>OK (1286ms)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
@@ -777,6 +848,100 @@
       <c r="E11" s="4" t="inlineStr">
         <is>
           <t>OK (1067ms)</t>
+        </is>
+      </c>
+      <c r="F11" s="4" t="inlineStr">
+        <is>
+          <t>OK (1242ms)</t>
+        </is>
+      </c>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>OK (1282ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>google/gemma-3n-e4b-it:free</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="6" t="n"/>
+      <c r="D12" s="6" t="n"/>
+      <c r="E12" s="6" t="n"/>
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>OK (1266ms)</t>
+        </is>
+      </c>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>OK (1485ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>mistralai/devstral-2512:free</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
+      <c r="E13" s="6" t="n"/>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>OK (3733ms)</t>
+        </is>
+      </c>
+      <c r="G13" s="5" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>mistralai/mistral-7b-instruct:free</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="6" t="n"/>
+      <c r="D14" s="6" t="n"/>
+      <c r="E14" s="6" t="n"/>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>OK (692ms)</t>
+        </is>
+      </c>
+      <c r="G14" s="4" t="inlineStr">
+        <is>
+          <t>OK (1290ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>mistralai/mistral-small-3.1-24b-instruct:free</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="6" t="n"/>
+      <c r="D15" s="6" t="n"/>
+      <c r="E15" s="6" t="n"/>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>OK (1418ms)</t>
+        </is>
+      </c>
+      <c r="G15" s="4" t="inlineStr">
+        <is>
+          <t>OK (937ms)</t>
         </is>
       </c>
     </row>

--- a/results/history.xlsx
+++ b/results/history.xlsx
@@ -33,7 +33,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -64,6 +64,12 @@
         <bgColor rgb="00F3F4F6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -77,7 +83,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -95,6 +101,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -460,12 +469,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
@@ -488,6 +499,7 @@
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -526,6 +538,11 @@
           <t>2025-12-14 19:41:18</t>
         </is>
       </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>2026-01-16 23:10:42</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
@@ -554,6 +571,7 @@
         </is>
       </c>
       <c r="F2" s="6" t="n"/>
+      <c r="G2" s="6" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
@@ -582,6 +600,7 @@
         </is>
       </c>
       <c r="F3" s="6" t="n"/>
+      <c r="G3" s="6" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
@@ -610,6 +629,7 @@
         </is>
       </c>
       <c r="F4" s="6" t="n"/>
+      <c r="G4" s="6" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -638,6 +658,12 @@
         </is>
       </c>
       <c r="F5" s="6" t="n"/>
+      <c r="G5" s="6" t="n"/>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>OK (1475ms)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
@@ -675,6 +701,11 @@
           <t>OK (1257ms)</t>
         </is>
       </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
@@ -712,6 +743,11 @@
           <t>429</t>
         </is>
       </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
@@ -749,6 +785,11 @@
           <t>OK (5822ms)</t>
         </is>
       </c>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
+          <t>OK (6064ms)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
@@ -786,6 +827,11 @@
           <t>OK (1501ms)</t>
         </is>
       </c>
+      <c r="H9" s="4" t="inlineStr">
+        <is>
+          <t>OK (1210ms)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
@@ -823,6 +869,11 @@
           <t>OK (1286ms)</t>
         </is>
       </c>
+      <c r="H10" s="4" t="inlineStr">
+        <is>
+          <t>OK (1804ms)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
@@ -858,6 +909,11 @@
       <c r="G11" s="4" t="inlineStr">
         <is>
           <t>OK (1282ms)</t>
+        </is>
+      </c>
+      <c r="H11" s="4" t="inlineStr">
+        <is>
+          <t>OK (1269ms)</t>
         </is>
       </c>
     </row>
@@ -881,6 +937,11 @@
           <t>OK (1485ms)</t>
         </is>
       </c>
+      <c r="H12" s="4" t="inlineStr">
+        <is>
+          <t>OK (1090ms)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
@@ -902,6 +963,11 @@
           <t>429</t>
         </is>
       </c>
+      <c r="H13" s="4" t="inlineStr">
+        <is>
+          <t>OK (714ms)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
@@ -944,6 +1010,263 @@
           <t>OK (937ms)</t>
         </is>
       </c>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>allenai/molmo-2-8b:free</t>
+        </is>
+      </c>
+      <c r="H16" s="4" t="inlineStr">
+        <is>
+          <t>OK (863ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>deepseek/deepseek-r1-0528:free</t>
+        </is>
+      </c>
+      <c r="H17" s="4" t="inlineStr">
+        <is>
+          <t>OK (11659ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>meta-llama/llama-3.1-405b-instruct:free</t>
+        </is>
+      </c>
+      <c r="H18" s="7" t="inlineStr">
+        <is>
+          <t>HTTP 404</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>meta-llama/llama-3.2-3b-instruct:free</t>
+        </is>
+      </c>
+      <c r="H19" s="7" t="inlineStr">
+        <is>
+          <t>HTTP 402</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>meta-llama/llama-3.3-70b-instruct:free</t>
+        </is>
+      </c>
+      <c r="H20" s="4" t="inlineStr">
+        <is>
+          <t>OK (1432ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>moonshotai/kimi-k2:free</t>
+        </is>
+      </c>
+      <c r="H21" s="7" t="inlineStr">
+        <is>
+          <t>HTTP 404</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>nousresearch/hermes-3-llama-3.1-405b:free</t>
+        </is>
+      </c>
+      <c r="H22" s="5" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>nvidia/nemotron-3-nano-30b-a3b:free</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="inlineStr">
+        <is>
+          <t>OK (721ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>nvidia/nemotron-nano-12b-v2-vl:free</t>
+        </is>
+      </c>
+      <c r="H24" s="4" t="inlineStr">
+        <is>
+          <t>OK (125622ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>nvidia/nemotron-nano-9b-v2:free</t>
+        </is>
+      </c>
+      <c r="H25" s="4" t="inlineStr">
+        <is>
+          <t>OK (1891ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>openai/gpt-oss-120b:free</t>
+        </is>
+      </c>
+      <c r="H26" s="7" t="inlineStr">
+        <is>
+          <t>HTTP 404</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>openai/gpt-oss-20b:free</t>
+        </is>
+      </c>
+      <c r="H27" s="7" t="inlineStr">
+        <is>
+          <t>HTTP 404</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>qwen/qwen-2.5-vl-7b-instruct:free</t>
+        </is>
+      </c>
+      <c r="H28" s="4" t="inlineStr">
+        <is>
+          <t>OK (834ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>qwen/qwen3-4b:free</t>
+        </is>
+      </c>
+      <c r="H29" s="7" t="inlineStr">
+        <is>
+          <t>HTTP 402</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>qwen/qwen3-coder:free</t>
+        </is>
+      </c>
+      <c r="H30" s="5" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>qwen/qwen3-next-80b-a3b-instruct:free</t>
+        </is>
+      </c>
+      <c r="H31" s="7" t="inlineStr">
+        <is>
+          <t>HTTP 402</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>tngtech/deepseek-r1t-chimera:free</t>
+        </is>
+      </c>
+      <c r="H32" s="4" t="inlineStr">
+        <is>
+          <t>OK (3023ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>tngtech/deepseek-r1t2-chimera:free</t>
+        </is>
+      </c>
+      <c r="H33" s="4" t="inlineStr">
+        <is>
+          <t>OK (9197ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>tngtech/tng-r1t-chimera:free</t>
+        </is>
+      </c>
+      <c r="H34" s="4" t="inlineStr">
+        <is>
+          <t>OK (1785ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>xiaomi/mimo-v2-flash:free</t>
+        </is>
+      </c>
+      <c r="H35" s="4" t="inlineStr">
+        <is>
+          <t>OK (1784ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>z-ai/glm-4.5-air:free</t>
+        </is>
+      </c>
+      <c r="H36" s="4" t="inlineStr">
+        <is>
+          <t>OK (5392ms)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results/history.xlsx
+++ b/results/history.xlsx
@@ -469,12 +469,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
@@ -500,6 +502,7 @@
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="18" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -543,6 +546,11 @@
           <t>2026-01-16 23:10:42</t>
         </is>
       </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>2026-01-16 23:19:10</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
@@ -572,6 +580,7 @@
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="6" t="n"/>
+      <c r="H2" s="6" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
@@ -601,6 +610,7 @@
       </c>
       <c r="F3" s="6" t="n"/>
       <c r="G3" s="6" t="n"/>
+      <c r="H3" s="6" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
@@ -630,6 +640,7 @@
       </c>
       <c r="F4" s="6" t="n"/>
       <c r="G4" s="6" t="n"/>
+      <c r="H4" s="6" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -664,6 +675,11 @@
           <t>OK (1475ms)</t>
         </is>
       </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>OK (1747ms)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
@@ -706,6 +722,11 @@
           <t>429</t>
         </is>
       </c>
+      <c r="I6" s="7" t="inlineStr">
+        <is>
+          <t>HTTP 402</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
@@ -748,6 +769,11 @@
           <t>429</t>
         </is>
       </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
@@ -790,6 +816,11 @@
           <t>OK (6064ms)</t>
         </is>
       </c>
+      <c r="I8" s="4" t="inlineStr">
+        <is>
+          <t>OK (3251ms)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
@@ -832,6 +863,11 @@
           <t>OK (1210ms)</t>
         </is>
       </c>
+      <c r="I9" s="4" t="inlineStr">
+        <is>
+          <t>OK (1016ms)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
@@ -874,6 +910,11 @@
           <t>OK (1804ms)</t>
         </is>
       </c>
+      <c r="I10" s="4" t="inlineStr">
+        <is>
+          <t>OK (1081ms)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
@@ -914,6 +955,11 @@
       <c r="H11" s="4" t="inlineStr">
         <is>
           <t>OK (1269ms)</t>
+        </is>
+      </c>
+      <c r="I11" s="4" t="inlineStr">
+        <is>
+          <t>OK (880ms)</t>
         </is>
       </c>
     </row>
@@ -942,6 +988,11 @@
           <t>OK (1090ms)</t>
         </is>
       </c>
+      <c r="I12" s="4" t="inlineStr">
+        <is>
+          <t>OK (1020ms)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
@@ -968,6 +1019,11 @@
           <t>OK (714ms)</t>
         </is>
       </c>
+      <c r="I13" s="4" t="inlineStr">
+        <is>
+          <t>OK (1346ms)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
@@ -989,6 +1045,7 @@
           <t>OK (1290ms)</t>
         </is>
       </c>
+      <c r="H14" s="6" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
@@ -1015,6 +1072,11 @@
           <t>429</t>
         </is>
       </c>
+      <c r="I15" s="5" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
@@ -1022,9 +1084,20 @@
           <t>allenai/molmo-2-8b:free</t>
         </is>
       </c>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="n"/>
+      <c r="D16" s="6" t="n"/>
+      <c r="E16" s="6" t="n"/>
+      <c r="F16" s="6" t="n"/>
+      <c r="G16" s="6" t="n"/>
       <c r="H16" s="4" t="inlineStr">
         <is>
           <t>OK (863ms)</t>
+        </is>
+      </c>
+      <c r="I16" s="4" t="inlineStr">
+        <is>
+          <t>OK (805ms)</t>
         </is>
       </c>
     </row>
@@ -1034,9 +1107,20 @@
           <t>deepseek/deepseek-r1-0528:free</t>
         </is>
       </c>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="6" t="n"/>
+      <c r="D17" s="6" t="n"/>
+      <c r="E17" s="6" t="n"/>
+      <c r="F17" s="6" t="n"/>
+      <c r="G17" s="6" t="n"/>
       <c r="H17" s="4" t="inlineStr">
         <is>
           <t>OK (11659ms)</t>
+        </is>
+      </c>
+      <c r="I17" s="4" t="inlineStr">
+        <is>
+          <t>OK (22386ms)</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1130,18 @@
           <t>meta-llama/llama-3.1-405b-instruct:free</t>
         </is>
       </c>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="6" t="n"/>
+      <c r="D18" s="6" t="n"/>
+      <c r="E18" s="6" t="n"/>
+      <c r="F18" s="6" t="n"/>
+      <c r="G18" s="6" t="n"/>
       <c r="H18" s="7" t="inlineStr">
+        <is>
+          <t>HTTP 404</t>
+        </is>
+      </c>
+      <c r="I18" s="7" t="inlineStr">
         <is>
           <t>HTTP 404</t>
         </is>
@@ -1058,7 +1153,18 @@
           <t>meta-llama/llama-3.2-3b-instruct:free</t>
         </is>
       </c>
+      <c r="B19" s="6" t="n"/>
+      <c r="C19" s="6" t="n"/>
+      <c r="D19" s="6" t="n"/>
+      <c r="E19" s="6" t="n"/>
+      <c r="F19" s="6" t="n"/>
+      <c r="G19" s="6" t="n"/>
       <c r="H19" s="7" t="inlineStr">
+        <is>
+          <t>HTTP 402</t>
+        </is>
+      </c>
+      <c r="I19" s="7" t="inlineStr">
         <is>
           <t>HTTP 402</t>
         </is>
@@ -1070,9 +1176,20 @@
           <t>meta-llama/llama-3.3-70b-instruct:free</t>
         </is>
       </c>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="6" t="n"/>
+      <c r="D20" s="6" t="n"/>
+      <c r="E20" s="6" t="n"/>
+      <c r="F20" s="6" t="n"/>
+      <c r="G20" s="6" t="n"/>
       <c r="H20" s="4" t="inlineStr">
         <is>
           <t>OK (1432ms)</t>
+        </is>
+      </c>
+      <c r="I20" s="4" t="inlineStr">
+        <is>
+          <t>OK (1091ms)</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1199,18 @@
           <t>moonshotai/kimi-k2:free</t>
         </is>
       </c>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="6" t="n"/>
+      <c r="D21" s="6" t="n"/>
+      <c r="E21" s="6" t="n"/>
+      <c r="F21" s="6" t="n"/>
+      <c r="G21" s="6" t="n"/>
       <c r="H21" s="7" t="inlineStr">
+        <is>
+          <t>HTTP 404</t>
+        </is>
+      </c>
+      <c r="I21" s="7" t="inlineStr">
         <is>
           <t>HTTP 404</t>
         </is>
@@ -1094,7 +1222,18 @@
           <t>nousresearch/hermes-3-llama-3.1-405b:free</t>
         </is>
       </c>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="6" t="n"/>
+      <c r="D22" s="6" t="n"/>
+      <c r="E22" s="6" t="n"/>
+      <c r="F22" s="6" t="n"/>
+      <c r="G22" s="6" t="n"/>
       <c r="H22" s="5" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="I22" s="5" t="inlineStr">
         <is>
           <t>429</t>
         </is>
@@ -1106,9 +1245,20 @@
           <t>nvidia/nemotron-3-nano-30b-a3b:free</t>
         </is>
       </c>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="n"/>
+      <c r="D23" s="6" t="n"/>
+      <c r="E23" s="6" t="n"/>
+      <c r="F23" s="6" t="n"/>
+      <c r="G23" s="6" t="n"/>
       <c r="H23" s="4" t="inlineStr">
         <is>
           <t>OK (721ms)</t>
+        </is>
+      </c>
+      <c r="I23" s="5" t="inlineStr">
+        <is>
+          <t>429</t>
         </is>
       </c>
     </row>
@@ -1118,9 +1268,20 @@
           <t>nvidia/nemotron-nano-12b-v2-vl:free</t>
         </is>
       </c>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="6" t="n"/>
+      <c r="D24" s="6" t="n"/>
+      <c r="E24" s="6" t="n"/>
+      <c r="F24" s="6" t="n"/>
+      <c r="G24" s="6" t="n"/>
       <c r="H24" s="4" t="inlineStr">
         <is>
           <t>OK (125622ms)</t>
+        </is>
+      </c>
+      <c r="I24" s="4" t="inlineStr">
+        <is>
+          <t>OK (125754ms)</t>
         </is>
       </c>
     </row>
@@ -1130,9 +1291,20 @@
           <t>nvidia/nemotron-nano-9b-v2:free</t>
         </is>
       </c>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="n"/>
+      <c r="D25" s="6" t="n"/>
+      <c r="E25" s="6" t="n"/>
+      <c r="F25" s="6" t="n"/>
+      <c r="G25" s="6" t="n"/>
       <c r="H25" s="4" t="inlineStr">
         <is>
           <t>OK (1891ms)</t>
+        </is>
+      </c>
+      <c r="I25" s="4" t="inlineStr">
+        <is>
+          <t>OK (1213ms)</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1314,18 @@
           <t>openai/gpt-oss-120b:free</t>
         </is>
       </c>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="n"/>
+      <c r="D26" s="6" t="n"/>
+      <c r="E26" s="6" t="n"/>
+      <c r="F26" s="6" t="n"/>
+      <c r="G26" s="6" t="n"/>
       <c r="H26" s="7" t="inlineStr">
+        <is>
+          <t>HTTP 404</t>
+        </is>
+      </c>
+      <c r="I26" s="7" t="inlineStr">
         <is>
           <t>HTTP 404</t>
         </is>
@@ -1154,7 +1337,18 @@
           <t>openai/gpt-oss-20b:free</t>
         </is>
       </c>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="6" t="n"/>
+      <c r="D27" s="6" t="n"/>
+      <c r="E27" s="6" t="n"/>
+      <c r="F27" s="6" t="n"/>
+      <c r="G27" s="6" t="n"/>
       <c r="H27" s="7" t="inlineStr">
+        <is>
+          <t>HTTP 404</t>
+        </is>
+      </c>
+      <c r="I27" s="7" t="inlineStr">
         <is>
           <t>HTTP 404</t>
         </is>
@@ -1166,9 +1360,20 @@
           <t>qwen/qwen-2.5-vl-7b-instruct:free</t>
         </is>
       </c>
+      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="6" t="n"/>
+      <c r="D28" s="6" t="n"/>
+      <c r="E28" s="6" t="n"/>
+      <c r="F28" s="6" t="n"/>
+      <c r="G28" s="6" t="n"/>
       <c r="H28" s="4" t="inlineStr">
         <is>
           <t>OK (834ms)</t>
+        </is>
+      </c>
+      <c r="I28" s="4" t="inlineStr">
+        <is>
+          <t>OK (1322ms)</t>
         </is>
       </c>
     </row>
@@ -1178,7 +1383,18 @@
           <t>qwen/qwen3-4b:free</t>
         </is>
       </c>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="6" t="n"/>
+      <c r="D29" s="6" t="n"/>
+      <c r="E29" s="6" t="n"/>
+      <c r="F29" s="6" t="n"/>
+      <c r="G29" s="6" t="n"/>
       <c r="H29" s="7" t="inlineStr">
+        <is>
+          <t>HTTP 402</t>
+        </is>
+      </c>
+      <c r="I29" s="7" t="inlineStr">
         <is>
           <t>HTTP 402</t>
         </is>
@@ -1190,7 +1406,18 @@
           <t>qwen/qwen3-coder:free</t>
         </is>
       </c>
+      <c r="B30" s="6" t="n"/>
+      <c r="C30" s="6" t="n"/>
+      <c r="D30" s="6" t="n"/>
+      <c r="E30" s="6" t="n"/>
+      <c r="F30" s="6" t="n"/>
+      <c r="G30" s="6" t="n"/>
       <c r="H30" s="5" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="I30" s="5" t="inlineStr">
         <is>
           <t>429</t>
         </is>
@@ -1202,7 +1429,18 @@
           <t>qwen/qwen3-next-80b-a3b-instruct:free</t>
         </is>
       </c>
+      <c r="B31" s="6" t="n"/>
+      <c r="C31" s="6" t="n"/>
+      <c r="D31" s="6" t="n"/>
+      <c r="E31" s="6" t="n"/>
+      <c r="F31" s="6" t="n"/>
+      <c r="G31" s="6" t="n"/>
       <c r="H31" s="7" t="inlineStr">
+        <is>
+          <t>HTTP 402</t>
+        </is>
+      </c>
+      <c r="I31" s="7" t="inlineStr">
         <is>
           <t>HTTP 402</t>
         </is>
@@ -1214,9 +1452,20 @@
           <t>tngtech/deepseek-r1t-chimera:free</t>
         </is>
       </c>
+      <c r="B32" s="6" t="n"/>
+      <c r="C32" s="6" t="n"/>
+      <c r="D32" s="6" t="n"/>
+      <c r="E32" s="6" t="n"/>
+      <c r="F32" s="6" t="n"/>
+      <c r="G32" s="6" t="n"/>
       <c r="H32" s="4" t="inlineStr">
         <is>
           <t>OK (3023ms)</t>
+        </is>
+      </c>
+      <c r="I32" s="4" t="inlineStr">
+        <is>
+          <t>OK (2972ms)</t>
         </is>
       </c>
     </row>
@@ -1226,9 +1475,20 @@
           <t>tngtech/deepseek-r1t2-chimera:free</t>
         </is>
       </c>
+      <c r="B33" s="6" t="n"/>
+      <c r="C33" s="6" t="n"/>
+      <c r="D33" s="6" t="n"/>
+      <c r="E33" s="6" t="n"/>
+      <c r="F33" s="6" t="n"/>
+      <c r="G33" s="6" t="n"/>
       <c r="H33" s="4" t="inlineStr">
         <is>
           <t>OK (9197ms)</t>
+        </is>
+      </c>
+      <c r="I33" s="4" t="inlineStr">
+        <is>
+          <t>OK (1478ms)</t>
         </is>
       </c>
     </row>
@@ -1238,9 +1498,20 @@
           <t>tngtech/tng-r1t-chimera:free</t>
         </is>
       </c>
+      <c r="B34" s="6" t="n"/>
+      <c r="C34" s="6" t="n"/>
+      <c r="D34" s="6" t="n"/>
+      <c r="E34" s="6" t="n"/>
+      <c r="F34" s="6" t="n"/>
+      <c r="G34" s="6" t="n"/>
       <c r="H34" s="4" t="inlineStr">
         <is>
           <t>OK (1785ms)</t>
+        </is>
+      </c>
+      <c r="I34" s="4" t="inlineStr">
+        <is>
+          <t>OK (1818ms)</t>
         </is>
       </c>
     </row>
@@ -1250,9 +1521,20 @@
           <t>xiaomi/mimo-v2-flash:free</t>
         </is>
       </c>
+      <c r="B35" s="6" t="n"/>
+      <c r="C35" s="6" t="n"/>
+      <c r="D35" s="6" t="n"/>
+      <c r="E35" s="6" t="n"/>
+      <c r="F35" s="6" t="n"/>
+      <c r="G35" s="6" t="n"/>
       <c r="H35" s="4" t="inlineStr">
         <is>
           <t>OK (1784ms)</t>
+        </is>
+      </c>
+      <c r="I35" s="4" t="inlineStr">
+        <is>
+          <t>OK (4056ms)</t>
         </is>
       </c>
     </row>
@@ -1262,9 +1544,20 @@
           <t>z-ai/glm-4.5-air:free</t>
         </is>
       </c>
+      <c r="B36" s="6" t="n"/>
+      <c r="C36" s="6" t="n"/>
+      <c r="D36" s="6" t="n"/>
+      <c r="E36" s="6" t="n"/>
+      <c r="F36" s="6" t="n"/>
+      <c r="G36" s="6" t="n"/>
       <c r="H36" s="4" t="inlineStr">
         <is>
           <t>OK (5392ms)</t>
+        </is>
+      </c>
+      <c r="I36" s="4" t="inlineStr">
+        <is>
+          <t>OK (2636ms)</t>
         </is>
       </c>
     </row>
